--- a/Bending and Barrowman Calcs.xlsx
+++ b/Bending and Barrowman Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDF370E-D5FD-445C-B79C-EF0E50C761EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90395CF6-EE17-4774-8B63-EAE2167E0043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>Calculation of Max Drag</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Fins:</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>ft/s</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>rad</t>
   </si>
   <si>
-    <t>Slope of C_N</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Blue font is for defined/constraining values</t>
   </si>
   <si>
-    <t>Black font is for iterated/guessed values</t>
-  </si>
-  <si>
     <t>Green font is for calculated values</t>
   </si>
   <si>
@@ -146,29 +137,98 @@
     <t>Center of Pressure Locations</t>
   </si>
   <si>
-    <t>??????</t>
-  </si>
-  <si>
     <t>Dist from tip of nosecone to start of fins (x_b)</t>
   </si>
   <si>
-    <t>Cp location (x_f)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Lateral Acting Inertia Loads</t>
   </si>
   <si>
-    <t>Fi</t>
+    <t>C_N_alpha</t>
+  </si>
+  <si>
+    <t>measured from tip of nosecone</t>
+  </si>
+  <si>
+    <t>Nosecone Length (L)</t>
+  </si>
+  <si>
+    <t>Nosecone: (Von Karman shape)</t>
+  </si>
+  <si>
+    <t>Cp location (x_N)</t>
+  </si>
+  <si>
+    <t>Cp location (x_F)</t>
+  </si>
+  <si>
+    <t>Note that Von Karman and Tangent Ogive shapes are very similar</t>
+  </si>
+  <si>
+    <t>Find the value below in OpenRocket. Go to tools -&gt; component analysis -&gt; stablilty and it is shown in far right column</t>
+  </si>
+  <si>
+    <t>F_N for nosecone</t>
+  </si>
+  <si>
+    <t>Max Dynamic Pressure (q)</t>
+  </si>
+  <si>
+    <t>Now using the nosecone Cp as origin</t>
+  </si>
+  <si>
+    <t>Cp_N to Cg (x1)</t>
+  </si>
+  <si>
+    <t>Cg (from tip of nosecone)</t>
+  </si>
+  <si>
+    <t>Cg to Cp_F (x2)</t>
+  </si>
+  <si>
+    <t>Not super sure about the above geometry values</t>
+  </si>
+  <si>
+    <t>W_2</t>
+  </si>
+  <si>
+    <t>W_1</t>
+  </si>
+  <si>
+    <t>lbf/in</t>
+  </si>
+  <si>
+    <t>Shear Loading</t>
+  </si>
+  <si>
+    <t>Bending Loading</t>
+  </si>
+  <si>
+    <t>Location (Cp_N as origin)</t>
+  </si>
+  <si>
+    <t>Shear Force</t>
+  </si>
+  <si>
+    <t>Bending Load</t>
+  </si>
+  <si>
+    <t>Using relative coordinates of Cp_N as x=0</t>
+  </si>
+  <si>
+    <t>Still in relative coordinates</t>
+  </si>
+  <si>
+    <t>Replace value 78 with length (not sure what length)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +257,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,22 +294,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -244,6 +324,1310 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7358705161854769E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.87105096237970259"/>
+          <c:h val="0.89814814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Shear</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$4:$X$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>41.096567199722223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.85766828539375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.618769371065277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.379870456736803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.140971542408337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.902072628079864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.663173713751391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.424274799422918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.185375885094444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.946476970765971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.707578056437498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.468679142109025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.229780227780559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.990881313452086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.751982399123612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.513083484795139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.274184570466666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.035285656138193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.796386741809719</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.557487827481253</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.31858891315278</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.079689998824307</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.840791084495834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.601892170167361</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.362993255838887</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.124094341510414</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.885195427181941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.646296512853475</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34.407397598525002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.168498684196528</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.929599769868055</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.690700855539582</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.451801941211109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.212903026882636</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.974004112554169</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.735105198225696</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.496206283897223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.25730736956875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.018408455240277</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.779509540911803</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31.54061062658333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.30171171225486</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.062812797926387</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.823913883597918</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30.585014969269444</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.346116054940971</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.107217140612498</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.868318226284025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.629419311955555</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29.390520397627082</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>29.151621483298612</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.912722568970139</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.673823654641666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.434924740313193</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.196025825984719</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.957126911656246</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.718227997327777</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.629835399026241</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.690016199095616</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.4998269928565833</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-9.6903622133824499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-23.880551419621476</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-38.070740625860516</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-52.260929832099542</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-66.451119038338561</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-80.641308244577601</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-94.831497450816642</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-109.02168665705568</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-123.21187586329469</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-137.40206506953373</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-151.59225427577277</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-165.78244348201179</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-179.97263268825083</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-194.16282189448987</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-208.35301110072891</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-222.54320030696792</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-236.73338951320696</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-250.923578719446</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-265.11376792568501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-279.30395713192399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6918-45FA-A41D-D94EE709A297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bending</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>236.08838091292333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.9689314557591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.61058308426638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.01333579844521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234.17718959829554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.10214448381743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>231.78820045501084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230.23535751187575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>228.44361565441221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>226.4129748826202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>224.14343519649972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>221.63499659605077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>218.88765908127331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>215.90142265216741</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>212.67628730873304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>209.21225305097019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.50931987887887</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201.56748779245908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>197.38675679171081</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>192.9671268766341</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>188.30859804722888</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>183.4111703034952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178.27484364543304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172.8996180730424</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>167.2854935863233</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>161.43247018527575</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155.34054786989969</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>149.0097266401952</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>142.4400064961622</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>135.63138743780075</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>128.58386946511081</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>121.2974525780924</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113.77213677674553</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106.00792206107019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.004808431066351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.762795886734068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.281884428073312</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.562074055084054</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63.603364767766351</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.405756566120175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44.969249450145526</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.293843419842375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.379538475210779</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.22633461625071</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8342318429621685</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.7967698446548468</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-16.666670446600335</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-27.775469962874269</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-39.123168393476732</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-50.70976573840764</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-62.535261997666993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-74.599657171254847</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-86.902951259171203</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-99.445144261415948</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-112.22623617798925</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-125.246227008891</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-138.50511675412119</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-143.47145488969286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2736.4463797947028</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2748.0413013906727</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2745.4460337804121</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2728.6605769639064</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2697.68493094117</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2652.5190957121886</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2593.1630712769766</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2519.6168576355049</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2431.8804547878171</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2329.9538627338843</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2213.8370814737063</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2083.5301110072978</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1939.0329513346442</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1780.3456024557454</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1607.4680643706015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1420.4003370792416</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1219.1424205816365</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1003.6943148777718</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>774.05601996769838</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>530.22753585137252</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>272.20886252880882</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6918-45FA-A41D-D94EE709A297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="293985440"/>
+        <c:axId val="333737696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="293985440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333737696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333737696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293985440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -307,6 +1691,42 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8797BB85-D15F-187D-EDCE-C07606A88369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -629,51 +2049,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="S1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -682,24 +2109,30 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -708,31 +2141,43 @@
         <v>1106</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <f>0.5*D2*D3^2</f>
         <v>1345.5596</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3">
+        <v>60.37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -741,44 +2186,103 @@
         <v>0.67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <f>D6</f>
         <v>8.7263888888888891E-2</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>38</v>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="P4">
-        <f>P3+(H11*(H13+2*H12))/(3*(H13+H12))+(1/6)*((H13+H12)-(H13*H12)/(H13+H12))</f>
-        <v>78.954545454545453</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4">
+        <f>T3-P9</f>
+        <v>56.37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>$H$25-($T$9*W4)</f>
+        <v>41.096567199722223</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>$H$19-(0.5*$T$9*(Z4^2))</f>
+        <v>236.08838091292333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>0.17499999999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5">
+        <f>P4+(H12*(H14+2*H13))/(3*(H14+H13))+(1/6)*((H14+H13)-(H14*H13)/(H14+H13))</f>
+        <v>78.954545454545453</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5">
+        <f>P5-T3</f>
+        <v>18.584545454545456</v>
+      </c>
+      <c r="U5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5">
+        <f>W4+1</f>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X62" si="0">$H$25-$T$9*W5</f>
+        <v>40.85766828539375</v>
+      </c>
+      <c r="Z5">
+        <f>Z4+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA62" si="1">$H$19-(0.5*$T$9*(Z5^2))</f>
+        <v>235.9689314557591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -787,155 +2291,1608 @@
         <v>8.7263888888888891E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W63" si="2">W5+1</f>
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>40.618769371065277</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z60" si="3">Z5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>235.61058308426638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f>0.5*D2*(D3)^2*D4*D6</f>
         <v>78.670571496611117</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>40.379870456736803</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>235.01333579844521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <f>(H19*(2*T5+T4)-H25*T4)/((T5)^2+(T4*T5))</f>
+        <v>14.190189206239031</v>
+      </c>
+      <c r="U8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>40.140971542408337</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>234.17718959829554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9">
+        <f>0.5*P8</f>
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9">
+        <f>(H25+H19-(T8*T5))/T4</f>
+        <v>0.23889891432847227</v>
+      </c>
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>39.902072628079864</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>233.10214448381743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>39.663173713751391</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>231.78820045501084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>39.424274799422918</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>230.23535751187575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>39.185375885094444</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>228.44361565441221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>38.946476970765971</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>226.4129748826202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>38.707578056437498</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>224.14343519649972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <f>DEGREES(ATAN((1/H11)*(H12+0.5*(H13-H14))))</f>
+        <v>12.528807709151511</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>38.468679142109025</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>221.63499659605077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <f>H11/(COS(RADIANS(H15)))</f>
+        <v>4.6097722286464435</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>38.229780227780559</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>218.88765908127331</v>
+      </c>
+    </row>
+    <row r="17" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <f>(1+(H10/(H11+H10)))*((4*H8*(H11/H9)^2)/(1+SQRT(1+((2*H16)/(H14+H13))^2)))</f>
+        <v>11.489445323526636</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>37.990881313452086</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>215.90142265216741</v>
+      </c>
+    </row>
+    <row r="18" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>37.751982399123612</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>212.67628730873304</v>
+      </c>
+    </row>
+    <row r="19" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <f>H3*H4*H5*H17</f>
+        <v>236.08838091292333</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="0"/>
+        <v>37.513083484795139</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>209.21225305097019</v>
+      </c>
+    </row>
+    <row r="20" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>37.274184570466666</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>205.50931987887887</v>
+      </c>
+    </row>
+    <row r="21" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="0"/>
+        <v>37.035285656138193</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>201.56748779245908</v>
+      </c>
+    </row>
+    <row r="22" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="X22">
+        <f t="shared" si="0"/>
+        <v>36.796386741809719</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>197.38675679171081</v>
+      </c>
+    </row>
+    <row r="23" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>36.557487827481253</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>192.9671268766341</v>
+      </c>
+    </row>
+    <row r="24" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>36.31858891315278</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>188.30859804722888</v>
+      </c>
+    </row>
+    <row r="25" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <f>H3*H4*H5*H24</f>
+        <v>41.096567199722223</v>
+      </c>
+      <c r="I25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>4.5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G12" s="1" t="s">
+      <c r="W25">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G13" s="1" t="s">
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>36.079689998824307</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="1"/>
+        <v>183.4111703034952</v>
+      </c>
+    </row>
+    <row r="26" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G14" s="2" t="s">
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>35.840791084495834</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>178.27484364543304</v>
+      </c>
+    </row>
+    <row r="27" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H14">
-        <f>DEGREES(ATAN((1/H10)*(H11+0.5*(H12-H13))))</f>
-        <v>12.528807709151511</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>35.601892170167361</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="1"/>
+        <v>172.8996180730424</v>
+      </c>
+    </row>
+    <row r="28" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>35.362993255838887</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="1"/>
+        <v>167.2854935863233</v>
+      </c>
+    </row>
+    <row r="29" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <f>H10/(COS(RADIANS(H14)))</f>
-        <v>4.6097722286464435</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16">
-        <f>(1+(H9/(H10+H9)))*((4*H7*(H10/H8)^2)/(1+SQRT(1+((2*H15)/(H13+H12))^2)))</f>
-        <v>11.489445323526636</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>35.124094341510414</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="1"/>
+        <v>161.43247018527575</v>
+      </c>
+    </row>
+    <row r="30" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="2" t="s">
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>34.885195427181941</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="1"/>
+        <v>155.34054786989969</v>
+      </c>
+    </row>
+    <row r="31" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H18">
-        <f>H3*H4*H5*H16</f>
-        <v>236.08838091292333</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>34.646296512853475</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="1"/>
+        <v>149.0097266401952</v>
+      </c>
+    </row>
+    <row r="32" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="4" t="s">
+      <c r="X32">
+        <f t="shared" si="0"/>
+        <v>34.407397598525002</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="1"/>
+        <v>142.4400064961622</v>
+      </c>
+    </row>
+    <row r="33" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="0"/>
+        <v>34.168498684196528</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="1"/>
+        <v>135.63138743780075</v>
+      </c>
+    </row>
+    <row r="34" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="0"/>
+        <v>33.929599769868055</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>128.58386946511081</v>
+      </c>
+    </row>
+    <row r="35" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="0"/>
+        <v>33.690700855539582</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AA35">
+        <f>$H$19-(0.5*$T$9*(Z35^2))</f>
+        <v>121.2974525780924</v>
+      </c>
+    </row>
+    <row r="36" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="0"/>
+        <v>33.451801941211109</v>
+      </c>
+      <c r="Z36">
+        <f>Z35+1</f>
+        <v>32</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="1"/>
+        <v>113.77213677674553</v>
+      </c>
+    </row>
+    <row r="37" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f>W36+1</f>
+        <v>33</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="0"/>
+        <v>33.212903026882636</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="1"/>
+        <v>106.00792206107019</v>
+      </c>
+    </row>
+    <row r="38" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="0"/>
+        <v>32.974004112554169</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="1"/>
+        <v>98.004808431066351</v>
+      </c>
+    </row>
+    <row r="39" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="0"/>
+        <v>32.735105198225696</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="1"/>
+        <v>89.762795886734068</v>
+      </c>
+    </row>
+    <row r="40" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="2"/>
         <v>36</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="0"/>
+        <v>32.496206283897223</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="1"/>
+        <v>81.281884428073312</v>
+      </c>
+    </row>
+    <row r="41" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="0"/>
+        <v>32.25730736956875</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="1"/>
+        <v>72.562074055084054</v>
+      </c>
+    </row>
+    <row r="42" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="0"/>
+        <v>32.018408455240277</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="1"/>
+        <v>63.603364767766351</v>
+      </c>
+    </row>
+    <row r="43" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="0"/>
+        <v>31.779509540911803</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="1"/>
+        <v>54.405756566120175</v>
+      </c>
+    </row>
+    <row r="44" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="0"/>
+        <v>31.54061062658333</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="1"/>
+        <v>44.969249450145526</v>
+      </c>
+    </row>
+    <row r="45" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="0"/>
+        <v>31.30171171225486</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="1"/>
+        <v>35.293843419842375</v>
+      </c>
+    </row>
+    <row r="46" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="0"/>
+        <v>31.062812797926387</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="1"/>
+        <v>25.379538475210779</v>
+      </c>
+    </row>
+    <row r="47" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="0"/>
+        <v>30.823913883597918</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="1"/>
+        <v>15.22633461625071</v>
+      </c>
+    </row>
+    <row r="48" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="0"/>
+        <v>30.585014969269444</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="1"/>
+        <v>4.8342318429621685</v>
+      </c>
+    </row>
+    <row r="49" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="0"/>
+        <v>30.346116054940971</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="1"/>
+        <v>-5.7967698446548468</v>
+      </c>
+    </row>
+    <row r="50" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="0"/>
+        <v>30.107217140612498</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="1"/>
+        <v>-16.666670446600335</v>
+      </c>
+    </row>
+    <row r="51" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="0"/>
+        <v>29.868318226284025</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="1"/>
+        <v>-27.775469962874269</v>
+      </c>
+    </row>
+    <row r="52" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="0"/>
+        <v>29.629419311955555</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="1"/>
+        <v>-39.123168393476732</v>
+      </c>
+    </row>
+    <row r="53" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="0"/>
+        <v>29.390520397627082</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="1"/>
+        <v>-50.70976573840764</v>
+      </c>
+    </row>
+    <row r="54" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="0"/>
+        <v>29.151621483298612</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="1"/>
+        <v>-62.535261997666993</v>
+      </c>
+    </row>
+    <row r="55" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="0"/>
+        <v>28.912722568970139</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="AA55">
+        <f>$H$19-(0.5*$T$9*(Z55^2))</f>
+        <v>-74.599657171254847</v>
+      </c>
+    </row>
+    <row r="56" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="0"/>
+        <v>28.673823654641666</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="1"/>
+        <v>-86.902951259171203</v>
+      </c>
+    </row>
+    <row r="57" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="0"/>
+        <v>28.434924740313193</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="1"/>
+        <v>-99.445144261415948</v>
+      </c>
+    </row>
+    <row r="58" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="0"/>
+        <v>28.196025825984719</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="1"/>
+        <v>-112.22623617798925</v>
+      </c>
+    </row>
+    <row r="59" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="0"/>
+        <v>27.957126911656246</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="1"/>
+        <v>-125.246227008891</v>
+      </c>
+    </row>
+    <row r="60" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="0"/>
+        <v>27.718227997327777</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="1"/>
+        <v>-138.50511675412119</v>
+      </c>
+    </row>
+    <row r="61" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W61" s="6">
+        <v>56.37</v>
+      </c>
+      <c r="X61" s="6">
+        <f t="shared" si="0"/>
+        <v>27.629835399026241</v>
+      </c>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6">
+        <v>56.37</v>
+      </c>
+      <c r="AA61" s="6">
+        <f t="shared" si="1"/>
+        <v>-143.47145488969286</v>
+      </c>
+      <c r="AB61" s="6"/>
+    </row>
+    <row r="62" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <v>57</v>
+      </c>
+      <c r="X62">
+        <f>$X$61-$T$8*(W62-$W$61)</f>
+        <v>18.690016199095616</v>
+      </c>
+      <c r="Z62">
+        <v>57</v>
+      </c>
+      <c r="AA62">
+        <f>($X$61*Z62)-(0.5*$T$8*(Z62^2))+($T$8*$Z$61*Z62)+(0.5*$T$8*78^2)-(78*($X$61+$T$8*$Z$61))</f>
+        <v>2736.4463797947028</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <f>W62+1</f>
+        <v>58</v>
+      </c>
+      <c r="X63">
+        <f t="shared" ref="X63:X83" si="4">$X$61-$T$8*(W63-$W$61)</f>
+        <v>4.4998269928565833</v>
+      </c>
+      <c r="Z63">
+        <f>Z62+1</f>
+        <v>58</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" ref="AA63:AA83" si="5">($X$61*Z63)-(0.5*$T$8*(Z63^2))+($T$8*$Z$61*Z63)+(0.5*$T$8*78^2)-(78*($X$61+$T$8*$Z$61))</f>
+        <v>2748.0413013906727</v>
+      </c>
+    </row>
+    <row r="64" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <f t="shared" ref="W64:W83" si="6">W63+1</f>
+        <v>59</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="4"/>
+        <v>-9.6903622133824499</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" ref="Z64:Z83" si="7">Z63+1</f>
+        <v>59</v>
+      </c>
+      <c r="AA64">
+        <f>($X$61*Z64)-(0.5*$T$8*(Z64^2))+($T$8*$Z$61*Z64)+(0.5*$T$8*78^2)-(78*($X$61+$T$8*$Z$61))</f>
+        <v>2745.4460337804121</v>
+      </c>
+    </row>
+    <row r="65" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="4"/>
+        <v>-23.880551419621476</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="5"/>
+        <v>2728.6605769639064</v>
+      </c>
+    </row>
+    <row r="66" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="4"/>
+        <v>-38.070740625860516</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="5"/>
+        <v>2697.68493094117</v>
+      </c>
+    </row>
+    <row r="67" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="4"/>
+        <v>-52.260929832099542</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="5"/>
+        <v>2652.5190957121886</v>
+      </c>
+    </row>
+    <row r="68" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="4"/>
+        <v>-66.451119038338561</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="5"/>
+        <v>2593.1630712769766</v>
+      </c>
+    </row>
+    <row r="69" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="4"/>
+        <v>-80.641308244577601</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="5"/>
+        <v>2519.6168576355049</v>
+      </c>
+    </row>
+    <row r="70" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="4"/>
+        <v>-94.831497450816642</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="5"/>
+        <v>2431.8804547878171</v>
+      </c>
+    </row>
+    <row r="71" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="4"/>
+        <v>-109.02168665705568</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="5"/>
+        <v>2329.9538627338843</v>
+      </c>
+    </row>
+    <row r="72" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="4"/>
+        <v>-123.21187586329469</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="5"/>
+        <v>2213.8370814737063</v>
+      </c>
+    </row>
+    <row r="73" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="4"/>
+        <v>-137.40206506953373</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="5"/>
+        <v>2083.5301110072978</v>
+      </c>
+    </row>
+    <row r="74" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="4"/>
+        <v>-151.59225427577277</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="5"/>
+        <v>1939.0329513346442</v>
+      </c>
+    </row>
+    <row r="75" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="4"/>
+        <v>-165.78244348201179</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="5"/>
+        <v>1780.3456024557454</v>
+      </c>
+    </row>
+    <row r="76" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="4"/>
+        <v>-179.97263268825083</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="5"/>
+        <v>1607.4680643706015</v>
+      </c>
+    </row>
+    <row r="77" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="4"/>
+        <v>-194.16282189448987</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="5"/>
+        <v>1420.4003370792416</v>
+      </c>
+    </row>
+    <row r="78" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="4"/>
+        <v>-208.35301110072891</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="5"/>
+        <v>1219.1424205816365</v>
+      </c>
+    </row>
+    <row r="79" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="4"/>
+        <v>-222.54320030696792</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="5"/>
+        <v>1003.6943148777718</v>
+      </c>
+    </row>
+    <row r="80" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="4"/>
+        <v>-236.73338951320696</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="5"/>
+        <v>774.05601996769838</v>
+      </c>
+    </row>
+    <row r="81" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="4"/>
+        <v>-250.923578719446</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="5"/>
+        <v>530.22753585137252</v>
+      </c>
+    </row>
+    <row r="82" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="4"/>
+        <v>-265.11376792568501</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="5"/>
+        <v>272.20886252880882</v>
+      </c>
+    </row>
+    <row r="83" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="4"/>
+        <v>-279.30395713192399</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bending and Barrowman Calcs.xlsx
+++ b/Bending and Barrowman Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90395CF6-EE17-4774-8B63-EAE2167E0043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F40A86-A0A0-4D92-86F2-356278A032A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1729,6 +1729,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>419786</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4758A6D4-EF0E-6390-C267-77DB42FB5F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26517600" y="895350"/>
+          <a:ext cx="4915586" cy="8249801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2051,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
   <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView tabSelected="1" topLeftCell="AH4" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bending and Barrowman Calcs.xlsx
+++ b/Bending and Barrowman Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F40A86-A0A0-4D92-86F2-356278A032A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044FC96-5F20-4784-93B3-C4BD0E99D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,11 +303,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -655,202 +655,202 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>236.08838091292333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>235.9689314557591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235.61058308426638</c:v>
+                  <c:v>471.69896399718971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.01333579844521</c:v>
+                  <c:v>707.19009762429187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.17718959829554</c:v>
+                  <c:v>942.44233233706552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>233.10214448381743</c:v>
+                  <c:v>1177.4556681355107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>231.78820045501084</c:v>
+                  <c:v>1412.2301050196274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>230.23535751187575</c:v>
+                  <c:v>1646.7656429894157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>228.44361565441221</c:v>
+                  <c:v>1881.0622820448755</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>226.4129748826202</c:v>
+                  <c:v>2115.1200221860067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>224.14343519649972</c:v>
+                  <c:v>2348.9388634128095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>221.63499659605077</c:v>
+                  <c:v>2582.518805725284</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>218.88765908127331</c:v>
+                  <c:v>2815.8598491234302</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>215.90142265216741</c:v>
+                  <c:v>3048.9619936072472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>212.67628730873304</c:v>
+                  <c:v>3281.825239176736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.21225305097019</c:v>
+                  <c:v>3514.4495858318969</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>205.50931987887887</c:v>
+                  <c:v>3746.8350335727287</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>201.56748779245908</c:v>
+                  <c:v>3978.9815823992321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>197.38675679171081</c:v>
+                  <c:v>4210.8892323114078</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>192.9671268766341</c:v>
+                  <c:v>4442.5579833092534</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>188.30859804722888</c:v>
+                  <c:v>4673.9878353927716</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183.4111703034952</c:v>
+                  <c:v>4905.1787885619615</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>178.27484364543304</c:v>
+                  <c:v>5136.1308428168222</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>172.8996180730424</c:v>
+                  <c:v>5366.8439981573556</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>167.2854935863233</c:v>
+                  <c:v>5597.3182545835598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>161.43247018527575</c:v>
+                  <c:v>5827.5536120954348</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>155.34054786989969</c:v>
+                  <c:v>6057.5500706929824</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>149.0097266401952</c:v>
+                  <c:v>6287.3076303762018</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>142.4400064961622</c:v>
+                  <c:v>6516.826291145092</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>135.63138743780075</c:v>
+                  <c:v>6746.1060529996539</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>128.58386946511081</c:v>
+                  <c:v>6975.1469159398875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>121.2974525780924</c:v>
+                  <c:v>7203.948879965792</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.77213677674553</c:v>
+                  <c:v>7432.5119450773691</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>106.00792206107019</c:v>
+                  <c:v>7660.836111274617</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>98.004808431066351</c:v>
+                  <c:v>7888.9213785575357</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.762795886734068</c:v>
+                  <c:v>8116.7677469261262</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>81.281884428073312</c:v>
+                  <c:v>8344.3752163803892</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>72.562074055084054</c:v>
+                  <c:v>8571.7437869203241</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63.603364767766351</c:v>
+                  <c:v>8798.8734585459279</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>54.405756566120175</c:v>
+                  <c:v>9025.7642312572061</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44.969249450145526</c:v>
+                  <c:v>9252.4161050541552</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.293843419842375</c:v>
+                  <c:v>9478.8290799367751</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.379538475210779</c:v>
+                  <c:v>9705.0031559050676</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.22633461625071</c:v>
+                  <c:v>9930.938332959031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.8342318429621685</c:v>
+                  <c:v>10156.634611098665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-5.7967698446548468</c:v>
+                  <c:v>10382.091990323972</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-16.666670446600335</c:v>
+                  <c:v>10607.31047063495</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-27.775469962874269</c:v>
+                  <c:v>10832.290052031598</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-39.123168393476732</c:v>
+                  <c:v>11057.030734513921</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-50.70976573840764</c:v>
+                  <c:v>11281.532518081913</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-62.535261997666993</c:v>
+                  <c:v>11505.795402735575</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-74.599657171254847</c:v>
+                  <c:v>11729.819388474913</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-86.902951259171203</c:v>
+                  <c:v>11953.604475299919</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-99.445144261415948</c:v>
+                  <c:v>12177.150663210596</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-112.22623617798925</c:v>
+                  <c:v>12400.457952206947</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-125.246227008891</c:v>
+                  <c:v>12623.526342288969</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-138.50511675412119</c:v>
+                  <c:v>12846.355833456661</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-143.47145488969286</c:v>
+                  <c:v>12928.742196258871</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2736.4463797947028</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2748.0413013906727</c:v>
+                  <c:v>2748.0413013906873</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2745.4460337804121</c:v>
+                  <c:v>2745.4460337804267</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2728.6605769639064</c:v>
+                  <c:v>2728.6605769639209</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2697.68493094117</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2652.5190957121886</c:v>
+                  <c:v>2652.5190957122031</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2593.1630712769766</c:v>
+                  <c:v>2593.163071276962</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2519.6168576355049</c:v>
+                  <c:v>2519.6168576355194</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>2431.8804547878171</c:v>
@@ -871,7 +871,7 @@
                   <c:v>1780.3456024557454</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1607.4680643706015</c:v>
+                  <c:v>1607.468064370616</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1420.4003370792416</c:v>
@@ -880,10 +880,10 @@
                   <c:v>1219.1424205816365</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1003.6943148777718</c:v>
+                  <c:v>1003.6943148777864</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>774.05601996769838</c:v>
+                  <c:v>774.05601996770565</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>530.22753585137252</c:v>
@@ -1695,16 +1695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2095,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
   <dimension ref="A1:AD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH4" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,26 +2112,26 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
       <c r="W1" t="s">
         <v>54</v>
       </c>
@@ -2164,10 +2164,10 @@
       <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2266,8 +2266,8 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>$H$19-(0.5*$T$9*(Z4^2))</f>
-        <v>236.08838091292333</v>
+        <f>$H$19*Z4-(0.5*$T$9*(Z4*Z4))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X62" si="0">$H$25-$T$9*W5</f>
+        <f t="shared" ref="X5:X61" si="0">$H$25-$T$9*W5</f>
         <v>40.85766828539375</v>
       </c>
       <c r="Z5">
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AA62" si="1">$H$19-(0.5*$T$9*(Z5^2))</f>
+        <f t="shared" ref="AA5:AA18" si="1">$H$19*Z5-(0.5*$T$9*(Z5*Z5))</f>
         <v>235.9689314557591</v>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>34</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W63" si="2">W5+1</f>
+        <f t="shared" ref="W6:W60" si="2">W5+1</f>
         <v>2</v>
       </c>
       <c r="X6">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="AA6">
         <f t="shared" si="1"/>
-        <v>235.61058308426638</v>
+        <v>471.69896399718971</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="AA7">
         <f t="shared" si="1"/>
-        <v>235.01333579844521</v>
+        <v>707.19009762429187</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="AA8">
         <f t="shared" si="1"/>
-        <v>234.17718959829554</v>
+        <v>942.44233233706552</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="AA9">
         <f t="shared" si="1"/>
-        <v>233.10214448381743</v>
+        <v>1177.4556681355107</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="AA10">
         <f t="shared" si="1"/>
-        <v>231.78820045501084</v>
+        <v>1412.2301050196274</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="AA11">
         <f t="shared" si="1"/>
-        <v>230.23535751187575</v>
+        <v>1646.7656429894157</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="AA12">
         <f t="shared" si="1"/>
-        <v>228.44361565441221</v>
+        <v>1881.0622820448755</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="AA13">
         <f t="shared" si="1"/>
-        <v>226.4129748826202</v>
+        <v>2115.1200221860067</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="AA14">
         <f t="shared" si="1"/>
-        <v>224.14343519649972</v>
+        <v>2348.9388634128095</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="AA15">
         <f t="shared" si="1"/>
-        <v>221.63499659605077</v>
+        <v>2582.518805725284</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="AA16">
         <f t="shared" si="1"/>
-        <v>218.88765908127331</v>
+        <v>2815.8598491234302</v>
       </c>
     </row>
     <row r="17" spans="7:27" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="AA17">
         <f t="shared" si="1"/>
-        <v>215.90142265216741</v>
+        <v>3048.9619936072472</v>
       </c>
     </row>
     <row r="18" spans="7:27" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="AA18">
         <f t="shared" si="1"/>
-        <v>212.67628730873304</v>
+        <v>3281.825239176736</v>
       </c>
     </row>
     <row r="19" spans="7:27" x14ac:dyDescent="0.25">
@@ -2751,8 +2751,8 @@
         <v>15</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="1"/>
-        <v>209.21225305097019</v>
+        <f t="shared" ref="AA5:AA61" si="4">$H$19*Z19-(0.5*$T$9*(Z19^2))</f>
+        <v>3514.4495858318969</v>
       </c>
     </row>
     <row r="20" spans="7:27" x14ac:dyDescent="0.25">
@@ -2769,8 +2769,8 @@
         <v>16</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="1"/>
-        <v>205.50931987887887</v>
+        <f t="shared" si="4"/>
+        <v>3746.8350335727287</v>
       </c>
     </row>
     <row r="21" spans="7:27" x14ac:dyDescent="0.25">
@@ -2787,8 +2787,8 @@
         <v>17</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="1"/>
-        <v>201.56748779245908</v>
+        <f t="shared" si="4"/>
+        <v>3978.9815823992321</v>
       </c>
     </row>
     <row r="22" spans="7:27" x14ac:dyDescent="0.25">
@@ -2808,8 +2808,8 @@
         <v>18</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="1"/>
-        <v>197.38675679171081</v>
+        <f t="shared" si="4"/>
+        <v>4210.8892323114078</v>
       </c>
     </row>
     <row r="23" spans="7:27" x14ac:dyDescent="0.25">
@@ -2832,8 +2832,8 @@
         <v>19</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="1"/>
-        <v>192.9671268766341</v>
+        <f t="shared" si="4"/>
+        <v>4442.5579833092534</v>
       </c>
     </row>
     <row r="24" spans="7:27" x14ac:dyDescent="0.25">
@@ -2859,8 +2859,8 @@
         <v>20</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="1"/>
-        <v>188.30859804722888</v>
+        <f t="shared" si="4"/>
+        <v>4673.9878353927716</v>
       </c>
     </row>
     <row r="25" spans="7:27" x14ac:dyDescent="0.25">
@@ -2887,8 +2887,8 @@
         <v>21</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="1"/>
-        <v>183.4111703034952</v>
+        <f t="shared" si="4"/>
+        <v>4905.1787885619615</v>
       </c>
     </row>
     <row r="26" spans="7:27" x14ac:dyDescent="0.25">
@@ -2905,8 +2905,8 @@
         <v>22</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="1"/>
-        <v>178.27484364543304</v>
+        <f t="shared" si="4"/>
+        <v>5136.1308428168222</v>
       </c>
     </row>
     <row r="27" spans="7:27" x14ac:dyDescent="0.25">
@@ -2923,8 +2923,8 @@
         <v>23</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="1"/>
-        <v>172.8996180730424</v>
+        <f t="shared" si="4"/>
+        <v>5366.8439981573556</v>
       </c>
     </row>
     <row r="28" spans="7:27" x14ac:dyDescent="0.25">
@@ -2941,8 +2941,8 @@
         <v>24</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="1"/>
-        <v>167.2854935863233</v>
+        <f t="shared" si="4"/>
+        <v>5597.3182545835598</v>
       </c>
     </row>
     <row r="29" spans="7:27" x14ac:dyDescent="0.25">
@@ -2959,8 +2959,8 @@
         <v>25</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="1"/>
-        <v>161.43247018527575</v>
+        <f t="shared" si="4"/>
+        <v>5827.5536120954348</v>
       </c>
     </row>
     <row r="30" spans="7:27" x14ac:dyDescent="0.25">
@@ -2977,8 +2977,8 @@
         <v>26</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="1"/>
-        <v>155.34054786989969</v>
+        <f t="shared" si="4"/>
+        <v>6057.5500706929824</v>
       </c>
     </row>
     <row r="31" spans="7:27" x14ac:dyDescent="0.25">
@@ -2995,8 +2995,8 @@
         <v>27</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="1"/>
-        <v>149.0097266401952</v>
+        <f t="shared" si="4"/>
+        <v>6287.3076303762018</v>
       </c>
     </row>
     <row r="32" spans="7:27" x14ac:dyDescent="0.25">
@@ -3013,8 +3013,8 @@
         <v>28</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="1"/>
-        <v>142.4400064961622</v>
+        <f t="shared" si="4"/>
+        <v>6516.826291145092</v>
       </c>
     </row>
     <row r="33" spans="23:27" x14ac:dyDescent="0.25">
@@ -3031,8 +3031,8 @@
         <v>29</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="1"/>
-        <v>135.63138743780075</v>
+        <f t="shared" si="4"/>
+        <v>6746.1060529996539</v>
       </c>
     </row>
     <row r="34" spans="23:27" x14ac:dyDescent="0.25">
@@ -3049,8 +3049,8 @@
         <v>30</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="1"/>
-        <v>128.58386946511081</v>
+        <f t="shared" si="4"/>
+        <v>6975.1469159398875</v>
       </c>
     </row>
     <row r="35" spans="23:27" x14ac:dyDescent="0.25">
@@ -3067,8 +3067,8 @@
         <v>31</v>
       </c>
       <c r="AA35">
-        <f>$H$19-(0.5*$T$9*(Z35^2))</f>
-        <v>121.2974525780924</v>
+        <f t="shared" si="4"/>
+        <v>7203.948879965792</v>
       </c>
     </row>
     <row r="36" spans="23:27" x14ac:dyDescent="0.25">
@@ -3085,8 +3085,8 @@
         <v>32</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="1"/>
-        <v>113.77213677674553</v>
+        <f t="shared" si="4"/>
+        <v>7432.5119450773691</v>
       </c>
     </row>
     <row r="37" spans="23:27" x14ac:dyDescent="0.25">
@@ -3103,8 +3103,8 @@
         <v>33</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="1"/>
-        <v>106.00792206107019</v>
+        <f t="shared" si="4"/>
+        <v>7660.836111274617</v>
       </c>
     </row>
     <row r="38" spans="23:27" x14ac:dyDescent="0.25">
@@ -3121,8 +3121,8 @@
         <v>34</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="1"/>
-        <v>98.004808431066351</v>
+        <f t="shared" si="4"/>
+        <v>7888.9213785575357</v>
       </c>
     </row>
     <row r="39" spans="23:27" x14ac:dyDescent="0.25">
@@ -3139,8 +3139,8 @@
         <v>35</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="1"/>
-        <v>89.762795886734068</v>
+        <f t="shared" si="4"/>
+        <v>8116.7677469261262</v>
       </c>
     </row>
     <row r="40" spans="23:27" x14ac:dyDescent="0.25">
@@ -3157,8 +3157,8 @@
         <v>36</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="1"/>
-        <v>81.281884428073312</v>
+        <f t="shared" si="4"/>
+        <v>8344.3752163803892</v>
       </c>
     </row>
     <row r="41" spans="23:27" x14ac:dyDescent="0.25">
@@ -3175,8 +3175,8 @@
         <v>37</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="1"/>
-        <v>72.562074055084054</v>
+        <f t="shared" si="4"/>
+        <v>8571.7437869203241</v>
       </c>
     </row>
     <row r="42" spans="23:27" x14ac:dyDescent="0.25">
@@ -3193,8 +3193,8 @@
         <v>38</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="1"/>
-        <v>63.603364767766351</v>
+        <f t="shared" si="4"/>
+        <v>8798.8734585459279</v>
       </c>
     </row>
     <row r="43" spans="23:27" x14ac:dyDescent="0.25">
@@ -3211,8 +3211,8 @@
         <v>39</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="1"/>
-        <v>54.405756566120175</v>
+        <f t="shared" si="4"/>
+        <v>9025.7642312572061</v>
       </c>
     </row>
     <row r="44" spans="23:27" x14ac:dyDescent="0.25">
@@ -3229,8 +3229,8 @@
         <v>40</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="1"/>
-        <v>44.969249450145526</v>
+        <f t="shared" si="4"/>
+        <v>9252.4161050541552</v>
       </c>
     </row>
     <row r="45" spans="23:27" x14ac:dyDescent="0.25">
@@ -3247,8 +3247,8 @@
         <v>41</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="1"/>
-        <v>35.293843419842375</v>
+        <f t="shared" si="4"/>
+        <v>9478.8290799367751</v>
       </c>
     </row>
     <row r="46" spans="23:27" x14ac:dyDescent="0.25">
@@ -3265,8 +3265,8 @@
         <v>42</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="1"/>
-        <v>25.379538475210779</v>
+        <f t="shared" si="4"/>
+        <v>9705.0031559050676</v>
       </c>
     </row>
     <row r="47" spans="23:27" x14ac:dyDescent="0.25">
@@ -3283,8 +3283,8 @@
         <v>43</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="1"/>
-        <v>15.22633461625071</v>
+        <f t="shared" si="4"/>
+        <v>9930.938332959031</v>
       </c>
     </row>
     <row r="48" spans="23:27" x14ac:dyDescent="0.25">
@@ -3301,8 +3301,8 @@
         <v>44</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="1"/>
-        <v>4.8342318429621685</v>
+        <f t="shared" si="4"/>
+        <v>10156.634611098665</v>
       </c>
     </row>
     <row r="49" spans="23:30" x14ac:dyDescent="0.25">
@@ -3319,8 +3319,8 @@
         <v>45</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="1"/>
-        <v>-5.7967698446548468</v>
+        <f t="shared" si="4"/>
+        <v>10382.091990323972</v>
       </c>
     </row>
     <row r="50" spans="23:30" x14ac:dyDescent="0.25">
@@ -3337,8 +3337,8 @@
         <v>46</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="1"/>
-        <v>-16.666670446600335</v>
+        <f t="shared" si="4"/>
+        <v>10607.31047063495</v>
       </c>
     </row>
     <row r="51" spans="23:30" x14ac:dyDescent="0.25">
@@ -3355,8 +3355,8 @@
         <v>47</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="1"/>
-        <v>-27.775469962874269</v>
+        <f t="shared" si="4"/>
+        <v>10832.290052031598</v>
       </c>
     </row>
     <row r="52" spans="23:30" x14ac:dyDescent="0.25">
@@ -3373,8 +3373,8 @@
         <v>48</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="1"/>
-        <v>-39.123168393476732</v>
+        <f t="shared" si="4"/>
+        <v>11057.030734513921</v>
       </c>
     </row>
     <row r="53" spans="23:30" x14ac:dyDescent="0.25">
@@ -3391,8 +3391,8 @@
         <v>49</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="1"/>
-        <v>-50.70976573840764</v>
+        <f t="shared" si="4"/>
+        <v>11281.532518081913</v>
       </c>
     </row>
     <row r="54" spans="23:30" x14ac:dyDescent="0.25">
@@ -3409,8 +3409,8 @@
         <v>50</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="1"/>
-        <v>-62.535261997666993</v>
+        <f t="shared" si="4"/>
+        <v>11505.795402735575</v>
       </c>
     </row>
     <row r="55" spans="23:30" x14ac:dyDescent="0.25">
@@ -3427,8 +3427,8 @@
         <v>51</v>
       </c>
       <c r="AA55">
-        <f>$H$19-(0.5*$T$9*(Z55^2))</f>
-        <v>-74.599657171254847</v>
+        <f t="shared" si="4"/>
+        <v>11729.819388474913</v>
       </c>
     </row>
     <row r="56" spans="23:30" x14ac:dyDescent="0.25">
@@ -3445,8 +3445,8 @@
         <v>52</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="1"/>
-        <v>-86.902951259171203</v>
+        <f t="shared" si="4"/>
+        <v>11953.604475299919</v>
       </c>
     </row>
     <row r="57" spans="23:30" x14ac:dyDescent="0.25">
@@ -3463,8 +3463,8 @@
         <v>53</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="1"/>
-        <v>-99.445144261415948</v>
+        <f t="shared" si="4"/>
+        <v>12177.150663210596</v>
       </c>
     </row>
     <row r="58" spans="23:30" x14ac:dyDescent="0.25">
@@ -3481,8 +3481,8 @@
         <v>54</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="1"/>
-        <v>-112.22623617798925</v>
+        <f t="shared" si="4"/>
+        <v>12400.457952206947</v>
       </c>
     </row>
     <row r="59" spans="23:30" x14ac:dyDescent="0.25">
@@ -3499,8 +3499,8 @@
         <v>55</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="1"/>
-        <v>-125.246227008891</v>
+        <f t="shared" si="4"/>
+        <v>12623.526342288969</v>
       </c>
     </row>
     <row r="60" spans="23:30" x14ac:dyDescent="0.25">
@@ -3517,27 +3517,27 @@
         <v>56</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="1"/>
-        <v>-138.50511675412119</v>
+        <f t="shared" si="4"/>
+        <v>12846.355833456661</v>
       </c>
     </row>
     <row r="61" spans="23:30" x14ac:dyDescent="0.25">
-      <c r="W61" s="6">
+      <c r="W61" s="5">
         <v>56.37</v>
       </c>
-      <c r="X61" s="6">
+      <c r="X61" s="5">
         <f t="shared" si="0"/>
         <v>27.629835399026241</v>
       </c>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6">
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5">
         <v>56.37</v>
       </c>
-      <c r="AA61" s="6">
-        <f t="shared" si="1"/>
-        <v>-143.47145488969286</v>
-      </c>
-      <c r="AB61" s="6"/>
+      <c r="AA61">
+        <f t="shared" si="4"/>
+        <v>12928.742196258871</v>
+      </c>
+      <c r="AB61" s="5"/>
     </row>
     <row r="62" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W62">
@@ -3551,7 +3551,7 @@
         <v>57</v>
       </c>
       <c r="AA62">
-        <f>($X$61*Z62)-(0.5*$T$8*(Z62^2))+($T$8*$Z$61*Z62)+(0.5*$T$8*78^2)-(78*($X$61+$T$8*$Z$61))</f>
+        <f>($X$61*Z62)+($T$8*($T$4*Z62+0.5*78^2-0.5*Z62^2))-78*($X$61+$T$8*$T$4)</f>
         <v>2736.4463797947028</v>
       </c>
       <c r="AB62" s="3" t="s">
@@ -3567,7 +3567,7 @@
         <v>58</v>
       </c>
       <c r="X63">
-        <f t="shared" ref="X63:X83" si="4">$X$61-$T$8*(W63-$W$61)</f>
+        <f t="shared" ref="X63:X83" si="5">$X$61-$T$8*(W63-$W$61)</f>
         <v>4.4998269928565833</v>
       </c>
       <c r="Z63">
@@ -3575,367 +3575,367 @@
         <v>58</v>
       </c>
       <c r="AA63">
-        <f t="shared" ref="AA63:AA83" si="5">($X$61*Z63)-(0.5*$T$8*(Z63^2))+($T$8*$Z$61*Z63)+(0.5*$T$8*78^2)-(78*($X$61+$T$8*$Z$61))</f>
-        <v>2748.0413013906727</v>
+        <f t="shared" ref="AA63:AA83" si="6">($X$61*Z63)+($T$8*($T$4*Z63+0.5*78^2-0.5*Z63^2))-78*($X$61+$T$8*$T$4)</f>
+        <v>2748.0413013906873</v>
       </c>
     </row>
     <row r="64" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W64">
-        <f t="shared" ref="W64:W83" si="6">W63+1</f>
+        <f t="shared" ref="W64:W83" si="7">W63+1</f>
         <v>59</v>
       </c>
       <c r="X64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.6903622133824499</v>
       </c>
       <c r="Z64">
-        <f t="shared" ref="Z64:Z83" si="7">Z63+1</f>
+        <f t="shared" ref="Z64:Z83" si="8">Z63+1</f>
         <v>59</v>
       </c>
       <c r="AA64">
-        <f>($X$61*Z64)-(0.5*$T$8*(Z64^2))+($T$8*$Z$61*Z64)+(0.5*$T$8*78^2)-(78*($X$61+$T$8*$Z$61))</f>
-        <v>2745.4460337804121</v>
+        <f t="shared" si="6"/>
+        <v>2745.4460337804267</v>
       </c>
     </row>
     <row r="65" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W65">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="4"/>
-        <v>-23.880551419621476</v>
-      </c>
-      <c r="Z65">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
+      <c r="X65">
+        <f t="shared" si="5"/>
+        <v>-23.880551419621476</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
       <c r="AA65">
-        <f t="shared" si="5"/>
-        <v>2728.6605769639064</v>
+        <f t="shared" si="6"/>
+        <v>2728.6605769639209</v>
       </c>
     </row>
     <row r="66" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W66">
-        <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="4"/>
-        <v>-38.070740625860516</v>
-      </c>
-      <c r="Z66">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
+      <c r="X66">
+        <f t="shared" si="5"/>
+        <v>-38.070740625860516</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
       <c r="AA66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2697.68493094117</v>
       </c>
     </row>
     <row r="67" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W67">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="X67">
-        <f t="shared" si="4"/>
-        <v>-52.260929832099542</v>
-      </c>
-      <c r="Z67">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
+      <c r="X67">
+        <f t="shared" si="5"/>
+        <v>-52.260929832099542</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
       <c r="AA67">
-        <f t="shared" si="5"/>
-        <v>2652.5190957121886</v>
+        <f t="shared" si="6"/>
+        <v>2652.5190957122031</v>
       </c>
     </row>
     <row r="68" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W68">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="X68">
-        <f t="shared" si="4"/>
-        <v>-66.451119038338561</v>
-      </c>
-      <c r="Z68">
         <f t="shared" si="7"/>
         <v>63</v>
       </c>
+      <c r="X68">
+        <f t="shared" si="5"/>
+        <v>-66.451119038338561</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
       <c r="AA68">
-        <f t="shared" si="5"/>
-        <v>2593.1630712769766</v>
+        <f t="shared" si="6"/>
+        <v>2593.163071276962</v>
       </c>
     </row>
     <row r="69" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W69">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="X69">
-        <f t="shared" si="4"/>
-        <v>-80.641308244577601</v>
-      </c>
-      <c r="Z69">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
+      <c r="X69">
+        <f t="shared" si="5"/>
+        <v>-80.641308244577601</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
       <c r="AA69">
-        <f t="shared" si="5"/>
-        <v>2519.6168576355049</v>
+        <f t="shared" si="6"/>
+        <v>2519.6168576355194</v>
       </c>
     </row>
     <row r="70" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W70">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="X70">
-        <f t="shared" si="4"/>
-        <v>-94.831497450816642</v>
-      </c>
-      <c r="Z70">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
+      <c r="X70">
+        <f t="shared" si="5"/>
+        <v>-94.831497450816642</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
       <c r="AA70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2431.8804547878171</v>
       </c>
     </row>
     <row r="71" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W71">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="X71">
-        <f t="shared" si="4"/>
-        <v>-109.02168665705568</v>
-      </c>
-      <c r="Z71">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
+      <c r="X71">
+        <f t="shared" si="5"/>
+        <v>-109.02168665705568</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
       <c r="AA71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2329.9538627338843</v>
       </c>
     </row>
     <row r="72" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W72">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="X72">
-        <f t="shared" si="4"/>
-        <v>-123.21187586329469</v>
-      </c>
-      <c r="Z72">
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
+      <c r="X72">
+        <f t="shared" si="5"/>
+        <v>-123.21187586329469</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
       <c r="AA72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2213.8370814737063</v>
       </c>
     </row>
     <row r="73" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W73">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="X73">
-        <f t="shared" si="4"/>
-        <v>-137.40206506953373</v>
-      </c>
-      <c r="Z73">
         <f t="shared" si="7"/>
         <v>68</v>
       </c>
+      <c r="X73">
+        <f t="shared" si="5"/>
+        <v>-137.40206506953373</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
       <c r="AA73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2083.5301110072978</v>
       </c>
     </row>
     <row r="74" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W74">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="X74">
-        <f t="shared" si="4"/>
-        <v>-151.59225427577277</v>
-      </c>
-      <c r="Z74">
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
+      <c r="X74">
+        <f t="shared" si="5"/>
+        <v>-151.59225427577277</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
       <c r="AA74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1939.0329513346442</v>
       </c>
     </row>
     <row r="75" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W75">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="X75">
-        <f t="shared" si="4"/>
-        <v>-165.78244348201179</v>
-      </c>
-      <c r="Z75">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
+      <c r="X75">
+        <f t="shared" si="5"/>
+        <v>-165.78244348201179</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
       <c r="AA75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1780.3456024557454</v>
       </c>
     </row>
     <row r="76" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W76">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="X76">
-        <f t="shared" si="4"/>
-        <v>-179.97263268825083</v>
-      </c>
-      <c r="Z76">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
+      <c r="X76">
+        <f t="shared" si="5"/>
+        <v>-179.97263268825083</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
       <c r="AA76">
-        <f t="shared" si="5"/>
-        <v>1607.4680643706015</v>
+        <f t="shared" si="6"/>
+        <v>1607.468064370616</v>
       </c>
     </row>
     <row r="77" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W77">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="X77">
-        <f t="shared" si="4"/>
-        <v>-194.16282189448987</v>
-      </c>
-      <c r="Z77">
         <f t="shared" si="7"/>
         <v>72</v>
       </c>
+      <c r="X77">
+        <f t="shared" si="5"/>
+        <v>-194.16282189448987</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
       <c r="AA77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1420.4003370792416</v>
       </c>
     </row>
     <row r="78" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W78">
-        <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="X78">
-        <f t="shared" si="4"/>
-        <v>-208.35301110072891</v>
-      </c>
-      <c r="Z78">
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
+      <c r="X78">
+        <f t="shared" si="5"/>
+        <v>-208.35301110072891</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
       <c r="AA78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1219.1424205816365</v>
       </c>
     </row>
     <row r="79" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W79">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="X79">
-        <f t="shared" si="4"/>
-        <v>-222.54320030696792</v>
-      </c>
-      <c r="Z79">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
+      <c r="X79">
+        <f t="shared" si="5"/>
+        <v>-222.54320030696792</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
       <c r="AA79">
-        <f t="shared" si="5"/>
-        <v>1003.6943148777718</v>
+        <f t="shared" si="6"/>
+        <v>1003.6943148777864</v>
       </c>
     </row>
     <row r="80" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W80">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="X80">
-        <f t="shared" si="4"/>
-        <v>-236.73338951320696</v>
-      </c>
-      <c r="Z80">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
+      <c r="X80">
+        <f t="shared" si="5"/>
+        <v>-236.73338951320696</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
       <c r="AA80">
-        <f t="shared" si="5"/>
-        <v>774.05601996769838</v>
+        <f t="shared" si="6"/>
+        <v>774.05601996770565</v>
       </c>
     </row>
     <row r="81" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W81">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="X81">
-        <f t="shared" si="4"/>
-        <v>-250.923578719446</v>
-      </c>
-      <c r="Z81">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
+      <c r="X81">
+        <f t="shared" si="5"/>
+        <v>-250.923578719446</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
       <c r="AA81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>530.22753585137252</v>
       </c>
     </row>
     <row r="82" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W82">
-        <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="X82">
-        <f t="shared" si="4"/>
-        <v>-265.11376792568501</v>
-      </c>
-      <c r="Z82">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
+      <c r="X82">
+        <f t="shared" si="5"/>
+        <v>-265.11376792568501</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
       <c r="AA82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>272.20886252880882</v>
       </c>
     </row>
     <row r="83" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W83">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="X83">
-        <f t="shared" si="4"/>
-        <v>-279.30395713192399</v>
-      </c>
-      <c r="Z83">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
+      <c r="X83">
+        <f t="shared" si="5"/>
+        <v>-279.30395713192399</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
       <c r="AA83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/Bending and Barrowman Calcs.xlsx
+++ b/Bending and Barrowman Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044FC96-5F20-4784-93B3-C4BD0E99D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9DEAA7-92E7-4049-B018-68B38F90370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,18 +608,6 @@
                 <c:pt idx="75">
                   <c:v>-222.54320030696792</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>-236.73338951320696</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-250.923578719446</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-265.11376792568501</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-279.30395713192399</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -658,241 +646,229 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>235.9689314557591</c:v>
+                  <c:v>40.977117742557986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>471.69896399718971</c:v>
+                  <c:v>81.7153365707875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>707.19009762429187</c:v>
+                  <c:v>122.21465648468855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>942.44233233706552</c:v>
+                  <c:v>162.47507748426111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1177.4556681355107</c:v>
+                  <c:v>202.49659956950521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1412.2301050196274</c:v>
+                  <c:v>242.27922274042086</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1646.7656429894157</c:v>
+                  <c:v>281.82294699700799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1881.0622820448755</c:v>
+                  <c:v>321.1277723392667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2115.1200221860067</c:v>
+                  <c:v>360.19369876719691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2348.9388634128095</c:v>
+                  <c:v>399.02072628079861</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2582.518805725284</c:v>
+                  <c:v>437.60885488007187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2815.8598491234302</c:v>
+                  <c:v>475.95808456501669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3048.9619936072472</c:v>
+                  <c:v>514.06841533563306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3281.825239176736</c:v>
+                  <c:v>551.93984719192076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3514.4495858318969</c:v>
+                  <c:v>589.57238013388019</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3746.8350335727287</c:v>
+                  <c:v>626.96601416151111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3978.9815823992321</c:v>
+                  <c:v>664.12074927481353</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4210.8892323114078</c:v>
+                  <c:v>701.03658547378757</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4442.5579833092534</c:v>
+                  <c:v>737.71352275843299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4673.9878353927716</c:v>
+                  <c:v>774.15156112875002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4905.1787885619615</c:v>
+                  <c:v>810.35070058473855</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5136.1308428168222</c:v>
+                  <c:v>846.31094112639857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5366.8439981573556</c:v>
+                  <c:v>882.03228275373021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5597.3182545835598</c:v>
+                  <c:v>917.51472546673335</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5827.5536120954348</c:v>
+                  <c:v>952.75826926540799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6057.5500706929824</c:v>
+                  <c:v>987.76291414975424</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6287.3076303762018</c:v>
+                  <c:v>1022.5286601197719</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6516.826291145092</c:v>
+                  <c:v>1057.0555071754611</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6746.1060529996539</c:v>
+                  <c:v>1091.343455316822</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6975.1469159398875</c:v>
+                  <c:v>1125.3925045438541</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7203.948879965792</c:v>
+                  <c:v>1159.2026548565582</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7432.5119450773691</c:v>
+                  <c:v>1192.7739062549333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7660.836111274617</c:v>
+                  <c:v>1226.1062587389802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7888.9213785575357</c:v>
+                  <c:v>1259.1997123086987</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8116.7677469261262</c:v>
+                  <c:v>1292.0542669640886</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8344.3752163803892</c:v>
+                  <c:v>1324.6699227051502</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8571.7437869203241</c:v>
+                  <c:v>1357.046679531883</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8798.8734585459279</c:v>
+                  <c:v>1389.1845374442873</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9025.7642312572061</c:v>
+                  <c:v>1421.0834964423636</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9252.4161050541552</c:v>
+                  <c:v>1452.743556526111</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9478.8290799367751</c:v>
+                  <c:v>1484.1647176955303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9705.0031559050676</c:v>
+                  <c:v>1515.3469799506208</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9930.938332959031</c:v>
+                  <c:v>1546.2903432913829</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10156.634611098665</c:v>
+                  <c:v>1576.9948077178167</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10382.091990323972</c:v>
+                  <c:v>1607.4603732299217</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10607.31047063495</c:v>
+                  <c:v>1637.6870398276988</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10832.290052031598</c:v>
+                  <c:v>1667.6748075111468</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11057.030734513921</c:v>
+                  <c:v>1697.4236762802668</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11281.532518081913</c:v>
+                  <c:v>1726.9336461350581</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11505.795402735575</c:v>
+                  <c:v>1756.2047170755209</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11729.819388474913</c:v>
+                  <c:v>1785.2368891016554</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11953.604475299919</c:v>
+                  <c:v>1814.0301622134612</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12177.150663210596</c:v>
+                  <c:v>1842.5845364109384</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12400.457952206947</c:v>
+                  <c:v>1870.9000116940874</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12623.526342288969</c:v>
+                  <c:v>1898.9765880629081</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12846.355833456661</c:v>
+                  <c:v>1926.8142655173997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12928.742196258871</c:v>
+                  <c:v>1937.0536572457256</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2736.4463797947028</c:v>
+                  <c:v>1950.2921188877153</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2748.0413013906873</c:v>
+                  <c:v>1961.8870404836998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2745.4460337804267</c:v>
+                  <c:v>1959.2917728734392</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2728.6605769639209</c:v>
+                  <c:v>1942.5063160569334</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2697.68493094117</c:v>
+                  <c:v>1911.5306700341825</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2652.5190957122031</c:v>
+                  <c:v>1866.3648348052157</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2593.163071276962</c:v>
+                  <c:v>1807.0088103699745</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2519.6168576355194</c:v>
+                  <c:v>1733.4625967285319</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2431.8804547878171</c:v>
+                  <c:v>1645.7261938808297</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2329.9538627338843</c:v>
+                  <c:v>1543.7996018268968</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2213.8370814737063</c:v>
+                  <c:v>1427.6828205667189</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2083.5301110072978</c:v>
+                  <c:v>1297.3758501003103</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1939.0329513346442</c:v>
+                  <c:v>1152.8786904276567</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1780.3456024557454</c:v>
+                  <c:v>994.19134154875792</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1607.468064370616</c:v>
+                  <c:v>821.31380346362857</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1420.4003370792416</c:v>
+                  <c:v>634.24607617225411</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1219.1424205816365</c:v>
+                  <c:v>432.98815967464907</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1003.6943148777864</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>774.05601996770565</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>530.22753585137252</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>272.20886252880882</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>217.54005397079891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
-  <dimension ref="A1:AD83"/>
+  <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>$H$19*Z4-(0.5*$T$9*(Z4*Z4))</f>
+        <f>$H$25*Z4-(0.5*$T$9*(Z4*Z4))</f>
         <v>0</v>
       </c>
     </row>
@@ -2322,8 +2298,8 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AA18" si="1">$H$19*Z5-(0.5*$T$9*(Z5*Z5))</f>
-        <v>235.9689314557591</v>
+        <f>$H$25*Z5-(0.5*$T$9*(Z5*Z5))</f>
+        <v>40.977117742557986</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -2344,7 +2320,7 @@
         <v>34</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W60" si="2">W5+1</f>
+        <f t="shared" ref="W6:W60" si="1">W5+1</f>
         <v>2</v>
       </c>
       <c r="X6">
@@ -2352,12 +2328,12 @@
         <v>40.618769371065277</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z60" si="3">Z5+1</f>
+        <f t="shared" ref="Z6:Z60" si="2">Z5+1</f>
         <v>2</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>471.69896399718971</v>
+        <f t="shared" ref="AA6:AA56" si="3">$H$25*Z6-(0.5*$T$9*(Z6*Z6))</f>
+        <v>81.7153365707875</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -2384,7 +2360,7 @@
         <v>34</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="X7">
@@ -2392,12 +2368,12 @@
         <v>40.379870456736803</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
-        <v>707.19009762429187</v>
+        <f t="shared" si="3"/>
+        <v>122.21465648468855</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -2427,7 +2403,7 @@
         <v>53</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="X8">
@@ -2435,12 +2411,12 @@
         <v>40.140971542408337</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="1"/>
-        <v>942.44233233706552</v>
+        <f t="shared" si="3"/>
+        <v>162.47507748426111</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -2474,7 +2450,7 @@
         <v>53</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="X9">
@@ -2482,12 +2458,12 @@
         <v>39.902072628079864</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="1"/>
-        <v>1177.4556681355107</v>
+        <f t="shared" si="3"/>
+        <v>202.49659956950521</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -2501,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="X10">
@@ -2509,12 +2485,12 @@
         <v>39.663173713751391</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>1412.2301050196274</v>
+        <f t="shared" si="3"/>
+        <v>242.27922274042086</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -2528,7 +2504,7 @@
         <v>13</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="X11">
@@ -2536,12 +2512,12 @@
         <v>39.424274799422918</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="1"/>
-        <v>1646.7656429894157</v>
+        <f t="shared" si="3"/>
+        <v>281.82294699700799</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -2555,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="X12">
@@ -2563,12 +2539,12 @@
         <v>39.185375885094444</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="1"/>
-        <v>1881.0622820448755</v>
+        <f t="shared" si="3"/>
+        <v>321.1277723392667</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -2582,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="X13">
@@ -2590,12 +2566,12 @@
         <v>38.946476970765971</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="1"/>
-        <v>2115.1200221860067</v>
+        <f t="shared" si="3"/>
+        <v>360.19369876719691</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -2609,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="X14">
@@ -2617,12 +2593,12 @@
         <v>38.707578056437498</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
-        <v>2348.9388634128095</v>
+        <f t="shared" si="3"/>
+        <v>399.02072628079861</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -2637,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="X15">
@@ -2645,12 +2621,12 @@
         <v>38.468679142109025</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
-        <v>2582.518805725284</v>
+        <f t="shared" si="3"/>
+        <v>437.60885488007187</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -2665,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="W16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="X16">
@@ -2673,12 +2649,12 @@
         <v>38.229780227780559</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
-        <v>2815.8598491234302</v>
+        <f t="shared" si="3"/>
+        <v>475.95808456501669</v>
       </c>
     </row>
     <row r="17" spans="7:27" x14ac:dyDescent="0.25">
@@ -2693,7 +2669,7 @@
         <v>24</v>
       </c>
       <c r="W17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="X17">
@@ -2701,17 +2677,17 @@
         <v>37.990881313452086</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="1"/>
-        <v>3048.9619936072472</v>
+        <f t="shared" si="3"/>
+        <v>514.06841533563306</v>
       </c>
     </row>
     <row r="18" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="X18">
@@ -2719,12 +2695,12 @@
         <v>37.751982399123612</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="1"/>
-        <v>3281.825239176736</v>
+        <f t="shared" si="3"/>
+        <v>551.93984719192076</v>
       </c>
     </row>
     <row r="19" spans="7:27" x14ac:dyDescent="0.25">
@@ -2739,7 +2715,7 @@
         <v>14</v>
       </c>
       <c r="W19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="X19">
@@ -2747,17 +2723,17 @@
         <v>37.513083484795139</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AA19">
-        <f t="shared" ref="AA5:AA61" si="4">$H$19*Z19-(0.5*$T$9*(Z19^2))</f>
-        <v>3514.4495858318969</v>
+        <f t="shared" si="3"/>
+        <v>589.57238013388019</v>
       </c>
     </row>
     <row r="20" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="X20">
@@ -2765,17 +2741,17 @@
         <v>37.274184570466666</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="4"/>
-        <v>3746.8350335727287</v>
+        <f t="shared" si="3"/>
+        <v>626.96601416151111</v>
       </c>
     </row>
     <row r="21" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="X21">
@@ -2783,12 +2759,12 @@
         <v>37.035285656138193</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="4"/>
-        <v>3978.9815823992321</v>
+        <f t="shared" si="3"/>
+        <v>664.12074927481353</v>
       </c>
     </row>
     <row r="22" spans="7:27" x14ac:dyDescent="0.25">
@@ -2796,7 +2772,7 @@
         <v>26</v>
       </c>
       <c r="W22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="X22">
@@ -2804,12 +2780,12 @@
         <v>36.796386741809719</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="4"/>
-        <v>4210.8892323114078</v>
+        <f t="shared" si="3"/>
+        <v>701.03658547378757</v>
       </c>
     </row>
     <row r="23" spans="7:27" x14ac:dyDescent="0.25">
@@ -2820,7 +2796,7 @@
         <v>34</v>
       </c>
       <c r="W23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="X23">
@@ -2828,12 +2804,12 @@
         <v>36.557487827481253</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="4"/>
-        <v>4442.5579833092534</v>
+        <f t="shared" si="3"/>
+        <v>737.71352275843299</v>
       </c>
     </row>
     <row r="24" spans="7:27" x14ac:dyDescent="0.25">
@@ -2847,7 +2823,7 @@
         <v>24</v>
       </c>
       <c r="W24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="X24">
@@ -2855,12 +2831,12 @@
         <v>36.31858891315278</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="4"/>
-        <v>4673.9878353927716</v>
+        <f t="shared" si="3"/>
+        <v>774.15156112875002</v>
       </c>
     </row>
     <row r="25" spans="7:27" x14ac:dyDescent="0.25">
@@ -2875,7 +2851,7 @@
         <v>14</v>
       </c>
       <c r="W25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="X25">
@@ -2883,17 +2859,17 @@
         <v>36.079689998824307</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="4"/>
-        <v>4905.1787885619615</v>
+        <f t="shared" si="3"/>
+        <v>810.35070058473855</v>
       </c>
     </row>
     <row r="26" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="X26">
@@ -2901,17 +2877,17 @@
         <v>35.840791084495834</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="4"/>
-        <v>5136.1308428168222</v>
+        <f t="shared" si="3"/>
+        <v>846.31094112639857</v>
       </c>
     </row>
     <row r="27" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="X27">
@@ -2919,17 +2895,17 @@
         <v>35.601892170167361</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="4"/>
-        <v>5366.8439981573556</v>
+        <f t="shared" si="3"/>
+        <v>882.03228275373021</v>
       </c>
     </row>
     <row r="28" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="X28">
@@ -2937,17 +2913,17 @@
         <v>35.362993255838887</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="4"/>
-        <v>5597.3182545835598</v>
+        <f t="shared" si="3"/>
+        <v>917.51472546673335</v>
       </c>
     </row>
     <row r="29" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="X29">
@@ -2955,17 +2931,17 @@
         <v>35.124094341510414</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="4"/>
-        <v>5827.5536120954348</v>
+        <f t="shared" si="3"/>
+        <v>952.75826926540799</v>
       </c>
     </row>
     <row r="30" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="X30">
@@ -2973,17 +2949,17 @@
         <v>34.885195427181941</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="4"/>
-        <v>6057.5500706929824</v>
+        <f t="shared" si="3"/>
+        <v>987.76291414975424</v>
       </c>
     </row>
     <row r="31" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="X31">
@@ -2991,17 +2967,17 @@
         <v>34.646296512853475</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="4"/>
-        <v>6287.3076303762018</v>
+        <f t="shared" si="3"/>
+        <v>1022.5286601197719</v>
       </c>
     </row>
     <row r="32" spans="7:27" x14ac:dyDescent="0.25">
       <c r="W32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="X32">
@@ -3009,17 +2985,17 @@
         <v>34.407397598525002</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="4"/>
-        <v>6516.826291145092</v>
+        <f t="shared" si="3"/>
+        <v>1057.0555071754611</v>
       </c>
     </row>
     <row r="33" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="X33">
@@ -3027,17 +3003,17 @@
         <v>34.168498684196528</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="4"/>
-        <v>6746.1060529996539</v>
+        <f t="shared" si="3"/>
+        <v>1091.343455316822</v>
       </c>
     </row>
     <row r="34" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="X34">
@@ -3045,17 +3021,17 @@
         <v>33.929599769868055</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="4"/>
-        <v>6975.1469159398875</v>
+        <f t="shared" si="3"/>
+        <v>1125.3925045438541</v>
       </c>
     </row>
     <row r="35" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="X35">
@@ -3063,17 +3039,17 @@
         <v>33.690700855539582</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="4"/>
-        <v>7203.948879965792</v>
+        <f t="shared" si="3"/>
+        <v>1159.2026548565582</v>
       </c>
     </row>
     <row r="36" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="X36">
@@ -3085,8 +3061,8 @@
         <v>32</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="4"/>
-        <v>7432.5119450773691</v>
+        <f t="shared" si="3"/>
+        <v>1192.7739062549333</v>
       </c>
     </row>
     <row r="37" spans="23:27" x14ac:dyDescent="0.25">
@@ -3099,17 +3075,17 @@
         <v>33.212903026882636</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="4"/>
-        <v>7660.836111274617</v>
+        <f t="shared" si="3"/>
+        <v>1226.1062587389802</v>
       </c>
     </row>
     <row r="38" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="X38">
@@ -3117,17 +3093,17 @@
         <v>32.974004112554169</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="4"/>
-        <v>7888.9213785575357</v>
+        <f t="shared" si="3"/>
+        <v>1259.1997123086987</v>
       </c>
     </row>
     <row r="39" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="X39">
@@ -3135,17 +3111,17 @@
         <v>32.735105198225696</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="4"/>
-        <v>8116.7677469261262</v>
+        <f t="shared" si="3"/>
+        <v>1292.0542669640886</v>
       </c>
     </row>
     <row r="40" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="X40">
@@ -3153,17 +3129,17 @@
         <v>32.496206283897223</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="4"/>
-        <v>8344.3752163803892</v>
+        <f t="shared" si="3"/>
+        <v>1324.6699227051502</v>
       </c>
     </row>
     <row r="41" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="X41">
@@ -3171,17 +3147,17 @@
         <v>32.25730736956875</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="4"/>
-        <v>8571.7437869203241</v>
+        <f t="shared" si="3"/>
+        <v>1357.046679531883</v>
       </c>
     </row>
     <row r="42" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="X42">
@@ -3189,17 +3165,17 @@
         <v>32.018408455240277</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="4"/>
-        <v>8798.8734585459279</v>
+        <f t="shared" si="3"/>
+        <v>1389.1845374442873</v>
       </c>
     </row>
     <row r="43" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="X43">
@@ -3207,17 +3183,17 @@
         <v>31.779509540911803</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="4"/>
-        <v>9025.7642312572061</v>
+        <f t="shared" si="3"/>
+        <v>1421.0834964423636</v>
       </c>
     </row>
     <row r="44" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="X44">
@@ -3225,17 +3201,17 @@
         <v>31.54061062658333</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="4"/>
-        <v>9252.4161050541552</v>
+        <f t="shared" si="3"/>
+        <v>1452.743556526111</v>
       </c>
     </row>
     <row r="45" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="X45">
@@ -3243,17 +3219,17 @@
         <v>31.30171171225486</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="4"/>
-        <v>9478.8290799367751</v>
+        <f t="shared" si="3"/>
+        <v>1484.1647176955303</v>
       </c>
     </row>
     <row r="46" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="X46">
@@ -3261,17 +3237,17 @@
         <v>31.062812797926387</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="4"/>
-        <v>9705.0031559050676</v>
+        <f t="shared" si="3"/>
+        <v>1515.3469799506208</v>
       </c>
     </row>
     <row r="47" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="X47">
@@ -3279,17 +3255,17 @@
         <v>30.823913883597918</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="4"/>
-        <v>9930.938332959031</v>
+        <f t="shared" si="3"/>
+        <v>1546.2903432913829</v>
       </c>
     </row>
     <row r="48" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="X48">
@@ -3297,17 +3273,17 @@
         <v>30.585014969269444</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="4"/>
-        <v>10156.634611098665</v>
+        <f t="shared" si="3"/>
+        <v>1576.9948077178167</v>
       </c>
     </row>
     <row r="49" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="X49">
@@ -3315,17 +3291,17 @@
         <v>30.346116054940971</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="4"/>
-        <v>10382.091990323972</v>
+        <f t="shared" si="3"/>
+        <v>1607.4603732299217</v>
       </c>
     </row>
     <row r="50" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="X50">
@@ -3333,17 +3309,17 @@
         <v>30.107217140612498</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="4"/>
-        <v>10607.31047063495</v>
+        <f t="shared" si="3"/>
+        <v>1637.6870398276988</v>
       </c>
     </row>
     <row r="51" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="X51">
@@ -3351,17 +3327,17 @@
         <v>29.868318226284025</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="4"/>
-        <v>10832.290052031598</v>
+        <f t="shared" si="3"/>
+        <v>1667.6748075111468</v>
       </c>
     </row>
     <row r="52" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="X52">
@@ -3369,17 +3345,17 @@
         <v>29.629419311955555</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="4"/>
-        <v>11057.030734513921</v>
+        <f t="shared" si="3"/>
+        <v>1697.4236762802668</v>
       </c>
     </row>
     <row r="53" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="X53">
@@ -3387,17 +3363,17 @@
         <v>29.390520397627082</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="4"/>
-        <v>11281.532518081913</v>
+        <f t="shared" si="3"/>
+        <v>1726.9336461350581</v>
       </c>
     </row>
     <row r="54" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="X54">
@@ -3405,17 +3381,17 @@
         <v>29.151621483298612</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="4"/>
-        <v>11505.795402735575</v>
+        <f t="shared" si="3"/>
+        <v>1756.2047170755209</v>
       </c>
     </row>
     <row r="55" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="X55">
@@ -3423,17 +3399,17 @@
         <v>28.912722568970139</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="4"/>
-        <v>11729.819388474913</v>
+        <f t="shared" si="3"/>
+        <v>1785.2368891016554</v>
       </c>
     </row>
     <row r="56" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="X56">
@@ -3441,17 +3417,17 @@
         <v>28.673823654641666</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="4"/>
-        <v>11953.604475299919</v>
+        <f t="shared" si="3"/>
+        <v>1814.0301622134612</v>
       </c>
     </row>
     <row r="57" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="X57">
@@ -3459,17 +3435,17 @@
         <v>28.434924740313193</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="4"/>
-        <v>12177.150663210596</v>
+        <f>$H$25*Z57-(0.5*$T$9*(Z57*Z57))</f>
+        <v>1842.5845364109384</v>
       </c>
     </row>
     <row r="58" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="X58">
@@ -3477,17 +3453,17 @@
         <v>28.196025825984719</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="4"/>
-        <v>12400.457952206947</v>
+        <f>$H$25*Z58-(0.5*$T$9*(Z58*Z58))</f>
+        <v>1870.9000116940874</v>
       </c>
     </row>
     <row r="59" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="X59">
@@ -3495,17 +3471,17 @@
         <v>27.957126911656246</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="4"/>
-        <v>12623.526342288969</v>
+        <f t="shared" ref="AA59:AA61" si="4">$H$25*Z59-(0.5*$T$9*(Z59*Z59))</f>
+        <v>1898.9765880629081</v>
       </c>
     </row>
     <row r="60" spans="23:30" x14ac:dyDescent="0.25">
       <c r="W60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="X60">
@@ -3513,12 +3489,12 @@
         <v>27.718227997327777</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="AA60">
         <f t="shared" si="4"/>
-        <v>12846.355833456661</v>
+        <v>1926.8142655173997</v>
       </c>
     </row>
     <row r="61" spans="23:30" x14ac:dyDescent="0.25">
@@ -3535,7 +3511,7 @@
       </c>
       <c r="AA61">
         <f t="shared" si="4"/>
-        <v>12928.742196258871</v>
+        <v>1937.0536572457256</v>
       </c>
       <c r="AB61" s="5"/>
     </row>
@@ -3551,8 +3527,8 @@
         <v>57</v>
       </c>
       <c r="AA62">
-        <f>($X$61*Z62)+($T$8*($T$4*Z62+0.5*78^2-0.5*Z62^2))-78*($X$61+$T$8*$T$4)</f>
-        <v>2736.4463797947028</v>
+        <f>($X$61*Z62)+($T$8*($T$4*Z62+0.5*78^2-0.5*Z62^2))-78.95*($X$61+$T$8*$T$4)</f>
+        <v>1950.2921188877153</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>61</v>
@@ -3575,8 +3551,8 @@
         <v>58</v>
       </c>
       <c r="AA63">
-        <f t="shared" ref="AA63:AA83" si="6">($X$61*Z63)+($T$8*($T$4*Z63+0.5*78^2-0.5*Z63^2))-78*($X$61+$T$8*$T$4)</f>
-        <v>2748.0413013906873</v>
+        <f t="shared" ref="AA63:AA83" si="6">($X$61*Z63)+($T$8*($T$4*Z63+0.5*78^2-0.5*Z63^2))-78.95*($X$61+$T$8*$T$4)</f>
+        <v>1961.8870404836998</v>
       </c>
     </row>
     <row r="64" spans="23:30" x14ac:dyDescent="0.25">
@@ -3594,7 +3570,7 @@
       </c>
       <c r="AA64">
         <f t="shared" si="6"/>
-        <v>2745.4460337804267</v>
+        <v>1959.2917728734392</v>
       </c>
     </row>
     <row r="65" spans="23:27" x14ac:dyDescent="0.25">
@@ -3612,7 +3588,7 @@
       </c>
       <c r="AA65">
         <f t="shared" si="6"/>
-        <v>2728.6605769639209</v>
+        <v>1942.5063160569334</v>
       </c>
     </row>
     <row r="66" spans="23:27" x14ac:dyDescent="0.25">
@@ -3630,7 +3606,7 @@
       </c>
       <c r="AA66">
         <f t="shared" si="6"/>
-        <v>2697.68493094117</v>
+        <v>1911.5306700341825</v>
       </c>
     </row>
     <row r="67" spans="23:27" x14ac:dyDescent="0.25">
@@ -3648,7 +3624,7 @@
       </c>
       <c r="AA67">
         <f t="shared" si="6"/>
-        <v>2652.5190957122031</v>
+        <v>1866.3648348052157</v>
       </c>
     </row>
     <row r="68" spans="23:27" x14ac:dyDescent="0.25">
@@ -3666,7 +3642,7 @@
       </c>
       <c r="AA68">
         <f t="shared" si="6"/>
-        <v>2593.163071276962</v>
+        <v>1807.0088103699745</v>
       </c>
     </row>
     <row r="69" spans="23:27" x14ac:dyDescent="0.25">
@@ -3684,7 +3660,7 @@
       </c>
       <c r="AA69">
         <f t="shared" si="6"/>
-        <v>2519.6168576355194</v>
+        <v>1733.4625967285319</v>
       </c>
     </row>
     <row r="70" spans="23:27" x14ac:dyDescent="0.25">
@@ -3702,7 +3678,7 @@
       </c>
       <c r="AA70">
         <f t="shared" si="6"/>
-        <v>2431.8804547878171</v>
+        <v>1645.7261938808297</v>
       </c>
     </row>
     <row r="71" spans="23:27" x14ac:dyDescent="0.25">
@@ -3720,7 +3696,7 @@
       </c>
       <c r="AA71">
         <f t="shared" si="6"/>
-        <v>2329.9538627338843</v>
+        <v>1543.7996018268968</v>
       </c>
     </row>
     <row r="72" spans="23:27" x14ac:dyDescent="0.25">
@@ -3738,7 +3714,7 @@
       </c>
       <c r="AA72">
         <f t="shared" si="6"/>
-        <v>2213.8370814737063</v>
+        <v>1427.6828205667189</v>
       </c>
     </row>
     <row r="73" spans="23:27" x14ac:dyDescent="0.25">
@@ -3756,7 +3732,7 @@
       </c>
       <c r="AA73">
         <f t="shared" si="6"/>
-        <v>2083.5301110072978</v>
+        <v>1297.3758501003103</v>
       </c>
     </row>
     <row r="74" spans="23:27" x14ac:dyDescent="0.25">
@@ -3774,7 +3750,7 @@
       </c>
       <c r="AA74">
         <f t="shared" si="6"/>
-        <v>1939.0329513346442</v>
+        <v>1152.8786904276567</v>
       </c>
     </row>
     <row r="75" spans="23:27" x14ac:dyDescent="0.25">
@@ -3792,7 +3768,7 @@
       </c>
       <c r="AA75">
         <f t="shared" si="6"/>
-        <v>1780.3456024557454</v>
+        <v>994.19134154875792</v>
       </c>
     </row>
     <row r="76" spans="23:27" x14ac:dyDescent="0.25">
@@ -3810,7 +3786,7 @@
       </c>
       <c r="AA76">
         <f t="shared" si="6"/>
-        <v>1607.468064370616</v>
+        <v>821.31380346362857</v>
       </c>
     </row>
     <row r="77" spans="23:27" x14ac:dyDescent="0.25">
@@ -3828,7 +3804,7 @@
       </c>
       <c r="AA77">
         <f t="shared" si="6"/>
-        <v>1420.4003370792416</v>
+        <v>634.24607617225411</v>
       </c>
     </row>
     <row r="78" spans="23:27" x14ac:dyDescent="0.25">
@@ -3846,7 +3822,7 @@
       </c>
       <c r="AA78">
         <f t="shared" si="6"/>
-        <v>1219.1424205816365</v>
+        <v>432.98815967464907</v>
       </c>
     </row>
     <row r="79" spans="23:27" x14ac:dyDescent="0.25">
@@ -3864,79 +3840,7 @@
       </c>
       <c r="AA79">
         <f t="shared" si="6"/>
-        <v>1003.6943148777864</v>
-      </c>
-    </row>
-    <row r="80" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W80">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="X80">
-        <f t="shared" si="5"/>
-        <v>-236.73338951320696</v>
-      </c>
-      <c r="Z80">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="AA80">
-        <f t="shared" si="6"/>
-        <v>774.05601996770565</v>
-      </c>
-    </row>
-    <row r="81" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W81">
-        <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="X81">
-        <f t="shared" si="5"/>
-        <v>-250.923578719446</v>
-      </c>
-      <c r="Z81">
-        <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="AA81">
-        <f t="shared" si="6"/>
-        <v>530.22753585137252</v>
-      </c>
-    </row>
-    <row r="82" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W82">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="X82">
-        <f t="shared" si="5"/>
-        <v>-265.11376792568501</v>
-      </c>
-      <c r="Z82">
-        <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="AA82">
-        <f t="shared" si="6"/>
-        <v>272.20886252880882</v>
-      </c>
-    </row>
-    <row r="83" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W83">
-        <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="X83">
-        <f t="shared" si="5"/>
-        <v>-279.30395713192399</v>
-      </c>
-      <c r="Z83">
-        <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="AA83">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>217.54005397079891</v>
       </c>
     </row>
   </sheetData>
